--- a/Inputs/AXA/info.xlsx
+++ b/Inputs/AXA/info.xlsx
@@ -64,10 +64,10 @@
     <t xml:space="preserve">ROW/</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD</t>
+    <t xml:space="preserve">2025-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP</t>
   </si>
   <si>
     <t xml:space="preserve">Annually/month</t>
@@ -289,11 +289,11 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.99"/>
